--- a/data/trans_orig/P16A01-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P16A01-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>30180</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>20570</v>
+        <v>21094</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>43716</v>
+        <v>42789</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06370164713545182</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04341617495767324</v>
+        <v>0.04452355832787141</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09227173036509091</v>
+        <v>0.09031513083833131</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>26</v>
@@ -765,19 +765,19 @@
         <v>26339</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>17887</v>
+        <v>17982</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>36707</v>
+        <v>37499</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08588455447637096</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05832479296851577</v>
+        <v>0.0586346226516565</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1196923304853826</v>
+        <v>0.1222753282073845</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>56</v>
@@ -786,19 +786,19 @@
         <v>56519</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>42502</v>
+        <v>42501</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>72052</v>
+        <v>71633</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07241841705505478</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05445821551235763</v>
+        <v>0.05445692515248599</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0923198286369226</v>
+        <v>0.09178301692947816</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>443596</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>430060</v>
+        <v>430987</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>453206</v>
+        <v>452682</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9362983528645482</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.907728269634909</v>
+        <v>0.9096848691616687</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9565838250423268</v>
+        <v>0.9554764416721286</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>272</v>
@@ -836,19 +836,19 @@
         <v>280341</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>269973</v>
+        <v>269181</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>288793</v>
+        <v>288698</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.914115445523629</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8803076695146175</v>
+        <v>0.8777246717926156</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9416752070314844</v>
+        <v>0.9413653773483435</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>697</v>
@@ -857,19 +857,19 @@
         <v>723938</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>708405</v>
+        <v>708824</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>737955</v>
+        <v>737956</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9275815829449452</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9076801713630774</v>
+        <v>0.9082169830705219</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9455417844876424</v>
+        <v>0.945543074847514</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>24506</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>16287</v>
+        <v>16066</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>37574</v>
+        <v>35852</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06678576270449973</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04438590252865981</v>
+        <v>0.04378413536465697</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1023994750257552</v>
+        <v>0.09770595238835338</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>27</v>
@@ -982,19 +982,19 @@
         <v>28383</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>19244</v>
+        <v>18913</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>39658</v>
+        <v>39693</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07632498285746273</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05174909336983324</v>
+        <v>0.05085886983370472</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1066470328619888</v>
+        <v>0.1067409564798797</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>50</v>
@@ -1003,19 +1003,19 @@
         <v>52889</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>40584</v>
+        <v>39692</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>70204</v>
+        <v>68138</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07158720503663465</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05493249410298757</v>
+        <v>0.05372509515732582</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09502481960478099</v>
+        <v>0.09222786785307538</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>342428</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>329360</v>
+        <v>331082</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>350647</v>
+        <v>350868</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9332142372955002</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8976005249742447</v>
+        <v>0.9022940476116466</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9556140974713402</v>
+        <v>0.956215864635343</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>336</v>
@@ -1053,19 +1053,19 @@
         <v>343482</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>332207</v>
+        <v>332172</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>352621</v>
+        <v>352952</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9236750171425373</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8933529671380114</v>
+        <v>0.8932590435201205</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9482509066301673</v>
+        <v>0.9491411301662954</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>663</v>
@@ -1074,19 +1074,19 @@
         <v>685910</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>668595</v>
+        <v>670661</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>698215</v>
+        <v>699107</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9284127949633654</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9049751803952186</v>
+        <v>0.9077721321469245</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9450675058970123</v>
+        <v>0.9462749048426735</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>42275</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>30477</v>
+        <v>30228</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>57356</v>
+        <v>58018</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07794213841900748</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05619116141292134</v>
+        <v>0.05573046449629109</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1057463943078937</v>
+        <v>0.1069677747985952</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>15</v>
@@ -1199,19 +1199,19 @@
         <v>17387</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10531</v>
+        <v>10085</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>27346</v>
+        <v>27582</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1036287543637133</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06276623659549702</v>
+        <v>0.06010934467935228</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1629843367576689</v>
+        <v>0.1643914105148548</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>55</v>
@@ -1220,19 +1220,19 @@
         <v>59662</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>45111</v>
+        <v>44217</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>76951</v>
+        <v>75979</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08401074641835612</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06352160768676192</v>
+        <v>0.06226234532901195</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1083555773320523</v>
+        <v>0.1069873137876356</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>500114</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>485033</v>
+        <v>484371</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>511912</v>
+        <v>512161</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9220578615809926</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8942536056921061</v>
+        <v>0.8930322252014048</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9438088385870786</v>
+        <v>0.944269535503709</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>149</v>
@@ -1270,19 +1270,19 @@
         <v>150395</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>140436</v>
+        <v>140200</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>157251</v>
+        <v>157697</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8963712456362868</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8370156632423313</v>
+        <v>0.8356085894851456</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9372337634045032</v>
+        <v>0.9398906553206479</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>641</v>
@@ -1291,19 +1291,19 @@
         <v>650509</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>633220</v>
+        <v>634192</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>665060</v>
+        <v>665954</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9159892535816438</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8916444226679477</v>
+        <v>0.8930126862123645</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9364783923132382</v>
+        <v>0.9377376546709881</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>86358</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>69643</v>
+        <v>70223</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>102550</v>
+        <v>104019</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06973688757389443</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05623926829579608</v>
+        <v>0.05670727790477563</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08281280687258553</v>
+        <v>0.08399894519099246</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>48</v>
@@ -1416,19 +1416,19 @@
         <v>49831</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>36437</v>
+        <v>37655</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>64446</v>
+        <v>64322</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06976318595533033</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0510117358388505</v>
+        <v>0.05271663996763135</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09022495151929168</v>
+        <v>0.09005136613585701</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>136</v>
@@ -1437,19 +1437,19 @@
         <v>136188</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>114745</v>
+        <v>115051</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>159217</v>
+        <v>161537</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06974650775122478</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05876447182422863</v>
+        <v>0.05892156672879692</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08154015162441706</v>
+        <v>0.08272844851671776</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>1151976</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1135784</v>
+        <v>1134315</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1168691</v>
+        <v>1168111</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9302631124261056</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9171871931274145</v>
+        <v>0.9160010548090075</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9437607317042039</v>
+        <v>0.9432927220952244</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>646</v>
@@ -1487,19 +1487,19 @@
         <v>664454</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>649839</v>
+        <v>649963</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>677848</v>
+        <v>676630</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9302368140446696</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9097750484807087</v>
+        <v>0.909948633864143</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9489882641611496</v>
+        <v>0.9472833600323687</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1782</v>
@@ -1508,19 +1508,19 @@
         <v>1816432</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1793403</v>
+        <v>1791083</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1837875</v>
+        <v>1837569</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9302534922487752</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.918459848375583</v>
+        <v>0.9172715514832823</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9412355281757715</v>
+        <v>0.9410784332712031</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>25133</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>16035</v>
+        <v>17293</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>35103</v>
+        <v>36552</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07190464732847834</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04587510109011222</v>
+        <v>0.04947485269932102</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1004278847143482</v>
+        <v>0.1045720790207344</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>28</v>
@@ -1633,19 +1633,19 @@
         <v>31989</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>21564</v>
+        <v>21988</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>45115</v>
+        <v>46005</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05624340642542845</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03791494810556901</v>
+        <v>0.03866073736979848</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07932280280178229</v>
+        <v>0.08088838980523716</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>55</v>
@@ -1654,19 +1654,19 @@
         <v>57122</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>43289</v>
+        <v>43584</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>71608</v>
+        <v>71540</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06220469429841524</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04714051207972278</v>
+        <v>0.04746227222490127</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0779795808039422</v>
+        <v>0.07790529598317154</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>324404</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>314434</v>
+        <v>312985</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>333502</v>
+        <v>332244</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9280953526715217</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8995721152856518</v>
+        <v>0.8954279209792655</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9541248989098881</v>
+        <v>0.9505251473006789</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>511</v>
@@ -1704,19 +1704,19 @@
         <v>536763</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>523637</v>
+        <v>522747</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>547188</v>
+        <v>546764</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9437565935745715</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9206771971982177</v>
+        <v>0.9191116101947633</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9620850518944311</v>
+        <v>0.9613392626302016</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>823</v>
@@ -1725,19 +1725,19 @@
         <v>861167</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>846681</v>
+        <v>846749</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>875000</v>
+        <v>874705</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9377953057015848</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9220204191960578</v>
+        <v>0.9220947040168285</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9528594879202773</v>
+        <v>0.9525377277750988</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>17153</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>10470</v>
+        <v>10447</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>25814</v>
+        <v>26174</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05752148891857344</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03511180756677507</v>
+        <v>0.03503181151132889</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08656549224022463</v>
+        <v>0.0877714455074238</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>63</v>
@@ -1850,19 +1850,19 @@
         <v>63156</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>48467</v>
+        <v>48446</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>79947</v>
+        <v>80181</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05057506115487244</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03881185689807787</v>
+        <v>0.03879545651395014</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06402108189191638</v>
+        <v>0.06420853031767196</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>81</v>
@@ -1871,19 +1871,19 @@
         <v>80309</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>63737</v>
+        <v>65596</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>98953</v>
+        <v>100968</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05191409258885515</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04120113165133259</v>
+        <v>0.04240320797236474</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06396580575045797</v>
+        <v>0.06526837287121558</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>281048</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>272387</v>
+        <v>272027</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>287731</v>
+        <v>287754</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9424785110814266</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9134345077597752</v>
+        <v>0.9122285544925762</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9648881924332247</v>
+        <v>0.9649681884886711</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1175</v>
@@ -1921,19 +1921,19 @@
         <v>1185604</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1168813</v>
+        <v>1168579</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1200293</v>
+        <v>1200314</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9494249388451276</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9359789181080833</v>
+        <v>0.9357914696823278</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.961188143101922</v>
+        <v>0.9612045434860497</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1463</v>
@@ -1942,19 +1942,19 @@
         <v>1466651</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1448007</v>
+        <v>1445992</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1483223</v>
+        <v>1481364</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9480859074111448</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9360341942495419</v>
+        <v>0.9347316271287842</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9587988683486672</v>
+        <v>0.9575967920276349</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>225605</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>198836</v>
+        <v>197379</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>256590</v>
+        <v>256310</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06900988130970637</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06082142497933523</v>
+        <v>0.06037573782742693</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07848789907061629</v>
+        <v>0.07840209004989181</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>207</v>
@@ -2067,19 +2067,19 @@
         <v>217084</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>188556</v>
+        <v>186835</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>246406</v>
+        <v>245193</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06426175520194985</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05581670441849375</v>
+        <v>0.0553071868030492</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07294173587807885</v>
+        <v>0.07258248564032406</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>433</v>
@@ -2088,19 +2088,19 @@
         <v>442689</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>404388</v>
+        <v>404102</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>488048</v>
+        <v>483734</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06659690628649928</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06083493654441785</v>
+        <v>0.06079199815053666</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07342054573817719</v>
+        <v>0.07277159841448783</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>3043567</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3012582</v>
+        <v>3012862</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3070336</v>
+        <v>3071793</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9309901186902937</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9215121009293835</v>
+        <v>0.9215979099501077</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9391785750206645</v>
+        <v>0.939624262172573</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3089</v>
@@ -2138,19 +2138,19 @@
         <v>3161040</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3131718</v>
+        <v>3132931</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3189568</v>
+        <v>3191289</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9357382447980501</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9270582641219212</v>
+        <v>0.9274175143596759</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9441832955815062</v>
+        <v>0.9446928131969508</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6069</v>
@@ -2159,19 +2159,19 @@
         <v>6204607</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6159248</v>
+        <v>6163562</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6242908</v>
+        <v>6243194</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9334030937135007</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9265794542618229</v>
+        <v>0.9272284015855121</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9391650634555821</v>
+        <v>0.9392080018494633</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>49681</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>35803</v>
+        <v>35835</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>65389</v>
+        <v>67162</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1136324397399428</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0818894216583244</v>
+        <v>0.08196227636972153</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1495586018158742</v>
+        <v>0.153615361979252</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>24</v>
@@ -2526,19 +2526,19 @@
         <v>26363</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>18236</v>
+        <v>17795</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>39575</v>
+        <v>39721</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08383774302039006</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05799384231669543</v>
+        <v>0.05658959100028287</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.125854141200614</v>
+        <v>0.126315802752637</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>67</v>
@@ -2547,19 +2547,19 @@
         <v>76044</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>60504</v>
+        <v>58982</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>95794</v>
+        <v>95806</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1011680191304799</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08049354056988486</v>
+        <v>0.0784678275800935</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1274425014118437</v>
+        <v>0.127458636229577</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>387530</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>371822</v>
+        <v>370049</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>401408</v>
+        <v>401376</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8863675602600573</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8504413981841257</v>
+        <v>0.8463846380207478</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9181105783416755</v>
+        <v>0.9180377236302785</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>259</v>
@@ -2597,19 +2597,19 @@
         <v>288091</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>274879</v>
+        <v>274733</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>296218</v>
+        <v>296659</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.91616225697961</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8741458587993862</v>
+        <v>0.8736841972473627</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9420061576833048</v>
+        <v>0.943410408999717</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>620</v>
@@ -2618,19 +2618,19 @@
         <v>675621</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>655871</v>
+        <v>655859</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>691161</v>
+        <v>692683</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8988319808695201</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8725574985881563</v>
+        <v>0.872541363770423</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9195064594301152</v>
+        <v>0.9215321724199065</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>30025</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>19827</v>
+        <v>19528</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>44580</v>
+        <v>42877</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07199956292467534</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04754497067634501</v>
+        <v>0.04682844543203273</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1069010380968203</v>
+        <v>0.1028184585707184</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>30</v>
@@ -2743,19 +2743,19 @@
         <v>31416</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>20857</v>
+        <v>21386</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>43702</v>
+        <v>43745</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09369241155314587</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06220139100639132</v>
+        <v>0.06377803375303318</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1303314046836045</v>
+        <v>0.1304604863300257</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>55</v>
@@ -2764,19 +2764,19 @@
         <v>61442</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>46442</v>
+        <v>46676</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>78203</v>
+        <v>78937</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08166808132213173</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06173094293948762</v>
+        <v>0.06204106822234933</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.10394690387136</v>
+        <v>0.1049231432211206</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>386993</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>372438</v>
+        <v>374141</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>397191</v>
+        <v>397490</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9280004370753246</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8930989619031797</v>
+        <v>0.8971815414292817</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.952455029323655</v>
+        <v>0.9531715545679673</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>273</v>
@@ -2814,19 +2814,19 @@
         <v>303899</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>291613</v>
+        <v>291570</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>314458</v>
+        <v>313929</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9063075884468541</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8696685953163958</v>
+        <v>0.8695395136699744</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9377986089936089</v>
+        <v>0.9362219662469669</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>621</v>
@@ -2835,19 +2835,19 @@
         <v>690891</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>674130</v>
+        <v>673396</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>705891</v>
+        <v>705657</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9183319186778682</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8960530961286403</v>
+        <v>0.8950768567788795</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9382690570605124</v>
+        <v>0.9379589317776508</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>54752</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>42997</v>
+        <v>41645</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>71714</v>
+        <v>71809</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08741549752322884</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06864802435995024</v>
+        <v>0.06648986268919094</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1144968924011023</v>
+        <v>0.1146492835453992</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>18</v>
@@ -2960,19 +2960,19 @@
         <v>19579</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>12181</v>
+        <v>12349</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>31155</v>
+        <v>30715</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07590474703915376</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04722265664376758</v>
+        <v>0.04787556584873262</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1207845974123146</v>
+        <v>0.1190808407560294</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>68</v>
@@ -2981,19 +2981,19 @@
         <v>74330</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>58195</v>
+        <v>60091</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>93880</v>
+        <v>94468</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08405788306912114</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06581046787818626</v>
+        <v>0.06795510531834123</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1061658195618784</v>
+        <v>0.1068305916991503</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>571586</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>554624</v>
+        <v>554529</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>583341</v>
+        <v>584693</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9125845024767711</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8855031075988973</v>
+        <v>0.8853507164546003</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9313519756400498</v>
+        <v>0.9335101373108087</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>224</v>
@@ -3031,19 +3031,19 @@
         <v>238359</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>226783</v>
+        <v>227223</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>245757</v>
+        <v>245589</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9240952529608463</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8792154025876854</v>
+        <v>0.8809191592439707</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9527773433562324</v>
+        <v>0.9521244341512674</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>763</v>
@@ -3052,19 +3052,19 @@
         <v>809946</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>790396</v>
+        <v>789808</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>826081</v>
+        <v>824185</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9159421169308789</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8938341804381217</v>
+        <v>0.8931694083008497</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9341895321218138</v>
+        <v>0.9320448946816587</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>113941</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>93731</v>
+        <v>94562</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>137550</v>
+        <v>136857</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09845248076572598</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08099036052826511</v>
+        <v>0.0817078009105227</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1188523578524076</v>
+        <v>0.1182537134498539</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>74</v>
@@ -3177,19 +3177,19 @@
         <v>78614</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>62450</v>
+        <v>61037</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>97706</v>
+        <v>97028</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1025406611267249</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08145764351305827</v>
+        <v>0.07961423456378959</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1274448399983197</v>
+        <v>0.1265593232741066</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>176</v>
@@ -3198,19 +3198,19 @@
         <v>192554</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>167191</v>
+        <v>166996</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>223145</v>
+        <v>222706</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1000815235426969</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08689908164884587</v>
+        <v>0.08679754030444299</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1159811736846796</v>
+        <v>0.115753225594154</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>1043374</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1019765</v>
+        <v>1020458</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1063584</v>
+        <v>1062753</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.901547519234274</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8811476421475923</v>
+        <v>0.8817462865501462</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9190096394717349</v>
+        <v>0.9182921990894773</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>637</v>
@@ -3248,19 +3248,19 @@
         <v>688043</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>668951</v>
+        <v>669629</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>704207</v>
+        <v>705620</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.897459338873275</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8725551600016804</v>
+        <v>0.8734406767258936</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9185423564869417</v>
+        <v>0.9203857654362105</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1616</v>
@@ -3269,19 +3269,19 @@
         <v>1731419</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1700828</v>
+        <v>1701267</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1756782</v>
+        <v>1756977</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8999184764573031</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8840188263153204</v>
+        <v>0.8842467744058461</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9131009183511541</v>
+        <v>0.913202459695557</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>45984</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>34383</v>
+        <v>35505</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>60783</v>
+        <v>59745</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09006043196864136</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06733991344016615</v>
+        <v>0.06953625502067164</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1190422679115248</v>
+        <v>0.1170112133554593</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>52</v>
@@ -3394,19 +3394,19 @@
         <v>54025</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>41303</v>
+        <v>41775</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>69280</v>
+        <v>72102</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07134383992135228</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05454360341657982</v>
+        <v>0.05516719620047988</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0914898982960833</v>
+        <v>0.09521637450902634</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>98</v>
@@ -3415,19 +3415,19 @@
         <v>100009</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>82790</v>
+        <v>83177</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>120701</v>
+        <v>119592</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07888156660671325</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06530034575807547</v>
+        <v>0.06560546448170972</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0952022288397151</v>
+        <v>0.09432725906976437</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>464612</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>449813</v>
+        <v>450851</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>476213</v>
+        <v>475091</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9099395680313587</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8809577320884752</v>
+        <v>0.8829887866445407</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9326600865598338</v>
+        <v>0.9304637449793284</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>647</v>
@@ -3465,19 +3465,19 @@
         <v>703217</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>687962</v>
+        <v>685140</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>715939</v>
+        <v>715467</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9286561600786477</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9085101017039167</v>
+        <v>0.9047836254909737</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9454563965834202</v>
+        <v>0.9448328037995202</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1088</v>
@@ -3486,19 +3486,19 @@
         <v>1167830</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1147138</v>
+        <v>1148247</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1185049</v>
+        <v>1184662</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9211184333932868</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9047977711602849</v>
+        <v>0.9056727409302356</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9346996542419245</v>
+        <v>0.9343945355182902</v>
       </c>
     </row>
     <row r="18">
@@ -3590,19 +3590,19 @@
         <v>26710</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>18271</v>
+        <v>18169</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>37812</v>
+        <v>38568</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1004726260398804</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06873087045665831</v>
+        <v>0.06834618315080776</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1422339378827577</v>
+        <v>0.1450782804567081</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>82</v>
@@ -3611,19 +3611,19 @@
         <v>84962</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>67595</v>
+        <v>69277</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>102775</v>
+        <v>102932</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07687063205653208</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06115787605536478</v>
+        <v>0.0626794694811873</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09298711883336172</v>
+        <v>0.09312951203121864</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>108</v>
@@ -3632,19 +3632,19 @@
         <v>111672</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>92917</v>
+        <v>91695</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>135385</v>
+        <v>134393</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.08144680486581893</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06776805827571313</v>
+        <v>0.06687684323499529</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09874223116492886</v>
+        <v>0.09801838729075092</v>
       </c>
     </row>
     <row r="20">
@@ -3661,19 +3661,19 @@
         <v>239131</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>228029</v>
+        <v>227273</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>247570</v>
+        <v>247672</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8995273739601196</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8577660621172425</v>
+        <v>0.8549217195432929</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9312691295433417</v>
+        <v>0.9316538168491922</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>958</v>
@@ -3682,19 +3682,19 @@
         <v>1020294</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1002481</v>
+        <v>1002324</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1037661</v>
+        <v>1035979</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9231293679434679</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9070128811666384</v>
+        <v>0.9068704879687814</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9388421239446353</v>
+        <v>0.9373205305188127</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1196</v>
@@ -3703,19 +3703,19 @@
         <v>1259426</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1235713</v>
+        <v>1236705</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1278181</v>
+        <v>1279403</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9185531951341811</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9012577688350711</v>
+        <v>0.9019816127092491</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9322319417242869</v>
+        <v>0.9331231567650058</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>321093</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>285110</v>
+        <v>286135</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>358880</v>
+        <v>358702</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.09404302568357722</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0835042568804147</v>
+        <v>0.08380433583655555</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1051102787892651</v>
+        <v>0.1050582409914434</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>280</v>
@@ -3828,19 +3828,19 @@
         <v>294958</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>263042</v>
+        <v>261991</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>334679</v>
+        <v>328467</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08339542294858925</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07437156847967788</v>
+        <v>0.07407443323925289</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09462598218343937</v>
+        <v>0.09286955588400471</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>572</v>
@@ -3849,19 +3849,19 @@
         <v>616051</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>569247</v>
+        <v>569370</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>669793</v>
+        <v>666697</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08862536932843249</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.08189211739568626</v>
+        <v>0.08190985392481968</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09635662317901837</v>
+        <v>0.09591136618756575</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>3093226</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3055439</v>
+        <v>3055617</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3129209</v>
+        <v>3128184</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9059569743164227</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8948897212107351</v>
+        <v>0.8949417590085568</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9164957431195856</v>
+        <v>0.9161956641634448</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2998</v>
@@ -3899,19 +3899,19 @@
         <v>3241906</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3202185</v>
+        <v>3208397</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3273822</v>
+        <v>3274873</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9166045770514107</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9053740178165606</v>
+        <v>0.9071304441159953</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.925628431520322</v>
+        <v>0.9259255667607471</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5904</v>
@@ -3920,19 +3920,19 @@
         <v>6335132</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6281390</v>
+        <v>6284486</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6381936</v>
+        <v>6381813</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9113746306715675</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9036433768209814</v>
+        <v>0.9040886338124342</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9181078826043135</v>
+        <v>0.9180901460751804</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>36104</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>25527</v>
+        <v>26118</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>49527</v>
+        <v>50541</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08414120015035059</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05948964072124576</v>
+        <v>0.06086699351313163</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1154226591080968</v>
+        <v>0.1177860488126377</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>23</v>
@@ -4287,19 +4287,19 @@
         <v>23538</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>15261</v>
+        <v>15576</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>34294</v>
+        <v>34942</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06782186761041192</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04397314322397928</v>
+        <v>0.04488176260340229</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09881329662706653</v>
+        <v>0.1006822697611274</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>56</v>
@@ -4308,19 +4308,19 @@
         <v>59642</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>44816</v>
+        <v>45078</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>76502</v>
+        <v>75694</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07684399351916178</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0577413082412165</v>
+        <v>0.05807861240001098</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09856576566813223</v>
+        <v>0.09752587572708318</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>392988</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>379565</v>
+        <v>378551</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>403565</v>
+        <v>402974</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9158587998496494</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8845773408919033</v>
+        <v>0.8822139511873627</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9405103592787543</v>
+        <v>0.9391330064868685</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>309</v>
@@ -4358,19 +4358,19 @@
         <v>323517</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>312761</v>
+        <v>312113</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>331794</v>
+        <v>331479</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9321781323895881</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9011867033729334</v>
+        <v>0.8993177302388714</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9560268567760207</v>
+        <v>0.9551182373965976</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>672</v>
@@ -4379,19 +4379,19 @@
         <v>716505</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>699645</v>
+        <v>700453</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>731331</v>
+        <v>731069</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9231560064808382</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9014342343318678</v>
+        <v>0.9024741242729168</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9422586917587836</v>
+        <v>0.9419213875999891</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>28454</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>18445</v>
+        <v>18845</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>38949</v>
+        <v>41133</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07542895341638819</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04889627426126723</v>
+        <v>0.04995693336696985</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1032498416568352</v>
+        <v>0.1090409985278552</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>32</v>
@@ -4504,19 +4504,19 @@
         <v>33379</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>23312</v>
+        <v>23272</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>46337</v>
+        <v>45157</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08966146120191813</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06261973485197364</v>
+        <v>0.06251374865436385</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1244701936530081</v>
+        <v>0.1212998892246902</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>59</v>
@@ -4525,19 +4525,19 @@
         <v>61832</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>48255</v>
+        <v>48192</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>80124</v>
+        <v>80552</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08249817333513895</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06438326621211519</v>
+        <v>0.06429888424610064</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1069037339800681</v>
+        <v>0.1074740964425498</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>348773</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>338278</v>
+        <v>336094</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>358782</v>
+        <v>358382</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9245710465836118</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8967501583431651</v>
+        <v>0.8909590014721456</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9511037257387331</v>
+        <v>0.9500430666330303</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>320</v>
@@ -4575,19 +4575,19 @@
         <v>338894</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>325936</v>
+        <v>327116</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>348961</v>
+        <v>349001</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9103385387980819</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.875529806346992</v>
+        <v>0.8787001107753097</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9373802651480263</v>
+        <v>0.937486251345636</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>647</v>
@@ -4596,19 +4596,19 @@
         <v>687668</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>669376</v>
+        <v>668948</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>701245</v>
+        <v>701308</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.917501826664861</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8930962660199319</v>
+        <v>0.8925259035574502</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9356167337878848</v>
+        <v>0.9357011157538994</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>44637</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>33182</v>
+        <v>33362</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>58493</v>
+        <v>58183</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08552581109046667</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06357735093632558</v>
+        <v>0.0639225940459744</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1120743465685744</v>
+        <v>0.1114805334264251</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>15</v>
@@ -4721,19 +4721,19 @@
         <v>15920</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9305</v>
+        <v>9236</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>24939</v>
+        <v>25763</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09583216257696213</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05601138787129292</v>
+        <v>0.05559930151056888</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1501227770607799</v>
+        <v>0.1550856842311602</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>59</v>
@@ -4742,19 +4742,19 @@
         <v>60557</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>45826</v>
+        <v>45564</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>77004</v>
+        <v>76314</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08801422561800866</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06660479404932046</v>
+        <v>0.06622369476585721</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1119180973595511</v>
+        <v>0.1109163084964321</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>477277</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>463421</v>
+        <v>463731</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>488732</v>
+        <v>488552</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9144741889095334</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8879256534314253</v>
+        <v>0.8885194665735747</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9364226490636743</v>
+        <v>0.9360774059540254</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>138</v>
@@ -4792,19 +4792,19 @@
         <v>150203</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>141184</v>
+        <v>140360</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>156818</v>
+        <v>156887</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9041678374230379</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8498772229392201</v>
+        <v>0.84491431576884</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9439886121287072</v>
+        <v>0.9444006984894314</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>596</v>
@@ -4813,19 +4813,19 @@
         <v>627479</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>611032</v>
+        <v>611722</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>642210</v>
+        <v>642472</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9119857743819914</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8880819026404481</v>
+        <v>0.8890836915035679</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9333952059506793</v>
+        <v>0.9337763052341428</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>90530</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>73285</v>
+        <v>73688</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>108550</v>
+        <v>109253</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07874677061719612</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06374620310950915</v>
+        <v>0.0640970321143317</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09442088193714585</v>
+        <v>0.09503221313064765</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>63</v>
@@ -4938,19 +4938,19 @@
         <v>63718</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>49988</v>
+        <v>49953</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>81010</v>
+        <v>80941</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07715159080886962</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06052755029341152</v>
+        <v>0.06048530308369097</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09809002700282751</v>
+        <v>0.09800620830438531</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>149</v>
@@ -4959,19 +4959,19 @@
         <v>154248</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>133273</v>
+        <v>132428</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>179758</v>
+        <v>179416</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07807989589973813</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06746233925972843</v>
+        <v>0.06703465416849247</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09099320388975683</v>
+        <v>0.09082015803564926</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>1059108</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1041088</v>
+        <v>1040385</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1076353</v>
+        <v>1075950</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9212532293828039</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.905579118062854</v>
+        <v>0.9049677868693523</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9362537968904907</v>
+        <v>0.9359029678856682</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>735</v>
@@ -5009,19 +5009,19 @@
         <v>762158</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>744866</v>
+        <v>744935</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>775888</v>
+        <v>775923</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9228484091911304</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9019099729971725</v>
+        <v>0.9019937916956156</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9394724497065885</v>
+        <v>0.9395146969163091</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1752</v>
@@ -5030,19 +5030,19 @@
         <v>1821266</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1795756</v>
+        <v>1796098</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1842241</v>
+        <v>1843086</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9219201041002618</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9090067961102438</v>
+        <v>0.9091798419643508</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9325376607402716</v>
+        <v>0.9329653458315076</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>42657</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>31634</v>
+        <v>30942</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>59004</v>
+        <v>57577</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06872315251726993</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05096426722433241</v>
+        <v>0.04985025431111617</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09506003450959656</v>
+        <v>0.09276117166359665</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>58</v>
@@ -5155,19 +5155,19 @@
         <v>60314</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>46319</v>
+        <v>46555</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>76352</v>
+        <v>74977</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08169942755994185</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0627417781236983</v>
+        <v>0.06306163624193253</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.103424442657069</v>
+        <v>0.1015614108990863</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>99</v>
@@ -5176,19 +5176,19 @@
         <v>102971</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>83828</v>
+        <v>84945</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>122415</v>
+        <v>126173</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0757724617642736</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06168609696942968</v>
+        <v>0.0625080960296323</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09008033632474216</v>
+        <v>0.09284609159619019</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>578049</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>561702</v>
+        <v>563129</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>589072</v>
+        <v>589764</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9312768474827301</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9049399654904031</v>
+        <v>0.9072388283364033</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9490357327756676</v>
+        <v>0.9501497456888838</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>641</v>
@@ -5226,19 +5226,19 @@
         <v>677930</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>661892</v>
+        <v>663267</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>691925</v>
+        <v>691689</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9183005724400581</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8965755573429309</v>
+        <v>0.8984385891009137</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9372582218763017</v>
+        <v>0.9369383637580674</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1197</v>
@@ -5247,19 +5247,19 @@
         <v>1255979</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1236535</v>
+        <v>1232777</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1275122</v>
+        <v>1274005</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9242275382357265</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9099196636752577</v>
+        <v>0.9071539084038098</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9383139030305703</v>
+        <v>0.9374919039703676</v>
       </c>
     </row>
     <row r="18">
@@ -5351,19 +5351,19 @@
         <v>18751</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>11568</v>
+        <v>11122</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>28317</v>
+        <v>28466</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06529996364835966</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04028584358247715</v>
+        <v>0.03873193233769166</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09861499686440821</v>
+        <v>0.09913618632501561</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>85</v>
@@ -5372,19 +5372,19 @@
         <v>98410</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>79347</v>
+        <v>80392</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>120704</v>
+        <v>120408</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.09095007160356311</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07333214093354586</v>
+        <v>0.07429748656107132</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.111553633904295</v>
+        <v>0.1112797945303847</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>103</v>
@@ -5393,19 +5393,19 @@
         <v>117161</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>97505</v>
+        <v>97219</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>141812</v>
+        <v>140772</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.08557067822458279</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07121461247012126</v>
+        <v>0.07100607084031767</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1035748749614366</v>
+        <v>0.1028154882363077</v>
       </c>
     </row>
     <row r="20">
@@ -5422,19 +5422,19 @@
         <v>268394</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>258828</v>
+        <v>258679</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>275577</v>
+        <v>276023</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9347000363516403</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9013850031355918</v>
+        <v>0.9008638136749842</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9597141564175229</v>
+        <v>0.9612680676623083</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>907</v>
@@ -5443,19 +5443,19 @@
         <v>983615</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>961321</v>
+        <v>961617</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1002678</v>
+        <v>1001633</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9090499283964368</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.888446366095705</v>
+        <v>0.8887202054696157</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9266678590664542</v>
+        <v>0.925702513438929</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1161</v>
@@ -5464,19 +5464,19 @@
         <v>1252009</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1227358</v>
+        <v>1228398</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1271665</v>
+        <v>1271951</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9144293217754172</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8964251250385634</v>
+        <v>0.8971845117636923</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9287853875298787</v>
+        <v>0.9289939291596823</v>
       </c>
     </row>
     <row r="21">
@@ -5568,19 +5568,19 @@
         <v>261133</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>229741</v>
+        <v>229133</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>294325</v>
+        <v>293811</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07712770879526307</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06785587856299764</v>
+        <v>0.06767626100029035</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08693136983883339</v>
+        <v>0.08677950398451506</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>276</v>
@@ -5589,19 +5589,19 @@
         <v>295278</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>264192</v>
+        <v>262204</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>333113</v>
+        <v>331921</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08361046791969647</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07480805983963269</v>
+        <v>0.07424532443670184</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09432362838086995</v>
+        <v>0.09398608065314876</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>525</v>
@@ -5610,19 +5610,19 @@
         <v>556411</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>510037</v>
+        <v>511950</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>601497</v>
+        <v>606453</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08043744317701784</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07373334720658842</v>
+        <v>0.074009966886283</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08695517764894507</v>
+        <v>0.08767164831564599</v>
       </c>
     </row>
     <row r="23">
@@ -5639,19 +5639,19 @@
         <v>3124589</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3091397</v>
+        <v>3091911</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3155981</v>
+        <v>3156589</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9228722912047369</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9130686301611667</v>
+        <v>0.9132204960154851</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9321441214370023</v>
+        <v>0.9323237389997099</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3050</v>
@@ -5660,19 +5660,19 @@
         <v>3236318</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3198483</v>
+        <v>3199675</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3267404</v>
+        <v>3269392</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9163895320803035</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9056763716191296</v>
+        <v>0.9060139193468513</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9251919401603673</v>
+        <v>0.9257546755632982</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6025</v>
@@ -5681,19 +5681,19 @@
         <v>6360907</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6315821</v>
+        <v>6310865</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6407281</v>
+        <v>6405368</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9195625568229822</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9130448223510549</v>
+        <v>0.9123283516843541</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9262666527934115</v>
+        <v>0.9259900331137169</v>
       </c>
     </row>
     <row r="24">
@@ -6027,19 +6027,19 @@
         <v>30598</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>20382</v>
+        <v>20054</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>46175</v>
+        <v>45930</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05557077241945556</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03701603918036919</v>
+        <v>0.0364208652208453</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08386032393193185</v>
+        <v>0.08341502128054722</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>54</v>
@@ -6048,19 +6048,19 @@
         <v>35452</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>26093</v>
+        <v>26000</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>45647</v>
+        <v>45449</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07258646641007388</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05342346640600497</v>
+        <v>0.05323298203693137</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09346007937799879</v>
+        <v>0.0930538620577309</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>81</v>
@@ -6069,19 +6069,19 @@
         <v>66050</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>51103</v>
+        <v>51579</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>81844</v>
+        <v>82635</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06356924884201452</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04918310318412809</v>
+        <v>0.04964181908079281</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07876942358555411</v>
+        <v>0.07953073748099526</v>
       </c>
     </row>
     <row r="5">
@@ -6098,19 +6098,19 @@
         <v>520020</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>504443</v>
+        <v>504688</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>530236</v>
+        <v>530564</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9444292275805445</v>
+        <v>0.9444292275805444</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.916139676068068</v>
+        <v>0.9165849787194528</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9629839608196308</v>
+        <v>0.9635791347791548</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>632</v>
@@ -6119,19 +6119,19 @@
         <v>452959</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>442764</v>
+        <v>442962</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>462318</v>
+        <v>462411</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9274135335899263</v>
+        <v>0.9274135335899262</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9065399206220012</v>
+        <v>0.906946137942269</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9465765335939951</v>
+        <v>0.9467670179630686</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1159</v>
@@ -6140,19 +6140,19 @@
         <v>972979</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>957185</v>
+        <v>956394</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>987926</v>
+        <v>987450</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9364307511579855</v>
+        <v>0.9364307511579856</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9212305764144456</v>
+        <v>0.9204692625190047</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9508168968158718</v>
+        <v>0.9503581809192072</v>
       </c>
     </row>
     <row r="6">
@@ -6244,19 +6244,19 @@
         <v>40791</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>29839</v>
+        <v>29383</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>54394</v>
+        <v>54847</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.08441561993995095</v>
+        <v>0.08441561993995093</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06175123778872949</v>
+        <v>0.06080759966179941</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1125671706282106</v>
+        <v>0.1135040321604129</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>40</v>
@@ -6265,19 +6265,19 @@
         <v>27003</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>19933</v>
+        <v>19905</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>36625</v>
+        <v>37088</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06393049301310061</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04719331922089556</v>
+        <v>0.04712708608134785</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08671212146420397</v>
+        <v>0.08780804545568414</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>82</v>
@@ -6286,19 +6286,19 @@
         <v>67793</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>53698</v>
+        <v>54543</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>84842</v>
+        <v>86069</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.07486111757592456</v>
+        <v>0.07486111757592455</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05929630141543786</v>
+        <v>0.06022968303970017</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09368677879048333</v>
+        <v>0.09504217535887155</v>
       </c>
     </row>
     <row r="8">
@@ -6315,19 +6315,19 @@
         <v>442421</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>428818</v>
+        <v>428365</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>453373</v>
+        <v>453829</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9155843800600492</v>
+        <v>0.9155843800600491</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8874328293717892</v>
+        <v>0.886495967839587</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9382487622112705</v>
+        <v>0.9391924003382005</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>549</v>
@@ -6336,19 +6336,19 @@
         <v>395375</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>385753</v>
+        <v>385290</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>402445</v>
+        <v>402473</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9360695069868994</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9132878785357964</v>
+        <v>0.9121919545443158</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9528066807791047</v>
+        <v>0.9528729139186519</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>988</v>
@@ -6357,19 +6357,19 @@
         <v>837797</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>820748</v>
+        <v>819521</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>851892</v>
+        <v>851047</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9251388824240754</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9063132212095166</v>
+        <v>0.9049578246411284</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9407036985845623</v>
+        <v>0.9397703169602993</v>
       </c>
     </row>
     <row r="9">
@@ -6461,19 +6461,19 @@
         <v>42947</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>30498</v>
+        <v>31848</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>57631</v>
+        <v>58019</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.09106468850633412</v>
+        <v>0.0910646885063341</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06466657060713879</v>
+        <v>0.06752933398300508</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1221991485651969</v>
+        <v>0.1230232645234456</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>33</v>
@@ -6482,19 +6482,19 @@
         <v>20544</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14520</v>
+        <v>14402</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>29247</v>
+        <v>29607</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1095681404804982</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07744147972033004</v>
+        <v>0.0768125305305942</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1559868193516929</v>
+        <v>0.1579042144079872</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>75</v>
@@ -6503,19 +6503,19 @@
         <v>63491</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>50886</v>
+        <v>50385</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>81199</v>
+        <v>81776</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09632838086590977</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07720441937427801</v>
+        <v>0.07644458903082489</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.123195533793019</v>
+        <v>0.1240699846336842</v>
       </c>
     </row>
     <row r="11">
@@ -6532,19 +6532,19 @@
         <v>428665</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>413981</v>
+        <v>413593</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>441114</v>
+        <v>439764</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.908935311493666</v>
+        <v>0.9089353114936659</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8778008514348029</v>
+        <v>0.8769767354765542</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9353334293928611</v>
+        <v>0.9324706660169948</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>256</v>
@@ -6553,19 +6553,19 @@
         <v>166953</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>158250</v>
+        <v>157890</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>172977</v>
+        <v>173095</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8904318595195018</v>
+        <v>0.8904318595195019</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8440131806483079</v>
+        <v>0.8420957855920127</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9225585202796701</v>
+        <v>0.9231874694694059</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>702</v>
@@ -6574,19 +6574,19 @@
         <v>595618</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>577910</v>
+        <v>577333</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>608223</v>
+        <v>608724</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9036716191340903</v>
+        <v>0.9036716191340902</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.876804466206981</v>
+        <v>0.8759300153663157</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9227955806257222</v>
+        <v>0.9235554109691752</v>
       </c>
     </row>
     <row r="12">
@@ -6678,19 +6678,19 @@
         <v>85250</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>67436</v>
+        <v>66811</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>109150</v>
+        <v>109396</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07531962735139119</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05958088629468666</v>
+        <v>0.05902808697807884</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09643592470164636</v>
+        <v>0.09665313874496724</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>80</v>
@@ -6699,19 +6699,19 @@
         <v>53493</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>43062</v>
+        <v>42151</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>67330</v>
+        <v>66439</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.06218102125955039</v>
+        <v>0.06218102125955038</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0500558207358052</v>
+        <v>0.04899680049578926</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07826432648459966</v>
+        <v>0.07722969410085692</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>160</v>
@@ -6720,19 +6720,19 @@
         <v>138743</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>118502</v>
+        <v>117391</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>166091</v>
+        <v>166890</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.06964582517024186</v>
+        <v>0.06964582517024184</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05948492368112544</v>
+        <v>0.05892750593214641</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08337359013445533</v>
+        <v>0.08377453424100881</v>
       </c>
     </row>
     <row r="14">
@@ -6749,19 +6749,19 @@
         <v>1046593</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1022693</v>
+        <v>1022447</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1064407</v>
+        <v>1065032</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9246803726486089</v>
+        <v>0.9246803726486087</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9035640752983538</v>
+        <v>0.9033468612550328</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9404191137053134</v>
+        <v>0.9409719130219214</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1148</v>
@@ -6770,19 +6770,19 @@
         <v>806791</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>792954</v>
+        <v>793845</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>817222</v>
+        <v>818133</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9378189787404496</v>
+        <v>0.9378189787404494</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9217356735154003</v>
+        <v>0.922770305899143</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9499441792641947</v>
+        <v>0.9510031995042109</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2186</v>
@@ -6791,19 +6791,19 @@
         <v>1853384</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1826036</v>
+        <v>1825237</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1873625</v>
+        <v>1874736</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9303541748297581</v>
+        <v>0.930354174829758</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9166264098655446</v>
+        <v>0.9162254657589911</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9405150763188744</v>
+        <v>0.9410724940678535</v>
       </c>
     </row>
     <row r="15">
@@ -6895,19 +6895,19 @@
         <v>34903</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>24025</v>
+        <v>23762</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>50100</v>
+        <v>51105</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.06155983640216017</v>
+        <v>0.06155983640216015</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04237435021040308</v>
+        <v>0.04191001896787745</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08836376031630896</v>
+        <v>0.09013657622627842</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>121</v>
@@ -6916,19 +6916,19 @@
         <v>81347</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>67895</v>
+        <v>67387</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>97759</v>
+        <v>100591</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.09799381519717199</v>
+        <v>0.09799381519717196</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08178866976231332</v>
+        <v>0.08117733646461051</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1177634534971332</v>
+        <v>0.1211759166592268</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>153</v>
@@ -6937,19 +6937,19 @@
         <v>116250</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>99953</v>
+        <v>98426</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>138181</v>
+        <v>138666</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.08320808373677582</v>
+        <v>0.08320808373677584</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0715428556706094</v>
+        <v>0.07045027799140957</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09890517773530434</v>
+        <v>0.09925244108067041</v>
       </c>
     </row>
     <row r="17">
@@ -6966,19 +6966,19 @@
         <v>532073</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>516876</v>
+        <v>515871</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>542951</v>
+        <v>543214</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9384401635978398</v>
+        <v>0.9384401635978397</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.911636239683691</v>
+        <v>0.9098634237737213</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9576256497895967</v>
+        <v>0.9580899810321222</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1168</v>
@@ -6987,19 +6987,19 @@
         <v>748780</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>732368</v>
+        <v>729536</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>762232</v>
+        <v>762740</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.902006184802828</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8822365465028668</v>
+        <v>0.8788240833407719</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9182113302376866</v>
+        <v>0.9188226635353889</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1682</v>
@@ -7008,19 +7008,19 @@
         <v>1280853</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1258922</v>
+        <v>1258437</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1297150</v>
+        <v>1298677</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9167919162632242</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9010948222646953</v>
+        <v>0.9007475589193296</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9284571443293905</v>
+        <v>0.9295497220085903</v>
       </c>
     </row>
     <row r="18">
@@ -7112,19 +7112,19 @@
         <v>7065</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2149</v>
+        <v>1783</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>18549</v>
+        <v>18156</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02978224706154831</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.009057610535584027</v>
+        <v>0.007516123972740055</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0781910144403388</v>
+        <v>0.07653584676457023</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>75</v>
@@ -7133,19 +7133,19 @@
         <v>56259</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>43949</v>
+        <v>42695</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>73040</v>
+        <v>72256</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.06673693609573639</v>
+        <v>0.06673693609573636</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05213477422879732</v>
+        <v>0.05064725928548375</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08664335111510439</v>
+        <v>0.08571349841147571</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>80</v>
@@ -7154,19 +7154,19 @@
         <v>63324</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>49624</v>
+        <v>49035</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>83925</v>
+        <v>82058</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.05862130085914198</v>
+        <v>0.05862130085914196</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04593862959656693</v>
+        <v>0.04539326178720623</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07769201399251814</v>
+        <v>0.07596419882348474</v>
       </c>
     </row>
     <row r="20">
@@ -7183,19 +7183,19 @@
         <v>230163</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>218679</v>
+        <v>219072</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>235079</v>
+        <v>235445</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9702177529384517</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9218089855596612</v>
+        <v>0.9234641532354297</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9909423894644158</v>
+        <v>0.99248387602726</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1082</v>
@@ -7204,19 +7204,19 @@
         <v>786734</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>769953</v>
+        <v>770737</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>799044</v>
+        <v>800298</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9332630639042637</v>
+        <v>0.9332630639042634</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9133566488848956</v>
+        <v>0.9142865015885243</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9478652257712026</v>
+        <v>0.9493527407145161</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1189</v>
@@ -7225,19 +7225,19 @@
         <v>1016897</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>996296</v>
+        <v>998163</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1030597</v>
+        <v>1031186</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.941378699140858</v>
+        <v>0.9413786991408579</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9223079860074815</v>
+        <v>0.9240358011765153</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9540613704034331</v>
+        <v>0.9546067382127937</v>
       </c>
     </row>
     <row r="21">
@@ -7329,19 +7329,19 @@
         <v>241554</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>207708</v>
+        <v>209344</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>273641</v>
+        <v>275958</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07018887239797054</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06035411429446393</v>
+        <v>0.06082954584445915</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07951226552043925</v>
+        <v>0.08018554839879506</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>403</v>
@@ -7350,19 +7350,19 @@
         <v>274098</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>248566</v>
+        <v>246800</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>304066</v>
+        <v>302275</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07547395298596762</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06844363800445932</v>
+        <v>0.06795744160701678</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08372573487905495</v>
+        <v>0.0832325786914048</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>631</v>
@@ -7371,19 +7371,19 @@
         <v>515652</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>471984</v>
+        <v>472705</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>560716</v>
+        <v>561880</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07290247196928243</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06672874552170835</v>
+        <v>0.06683070453429887</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07927354169088757</v>
+        <v>0.07943808901605708</v>
       </c>
     </row>
     <row r="23">
@@ -7400,19 +7400,19 @@
         <v>3199934</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3167847</v>
+        <v>3165530</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3233780</v>
+        <v>3232144</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9298111276020294</v>
+        <v>0.9298111276020296</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9204877344795608</v>
+        <v>0.9198144516012048</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9396458857055359</v>
+        <v>0.939170454155541</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4835</v>
@@ -7421,19 +7421,19 @@
         <v>3357592</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3327624</v>
+        <v>3329415</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3383124</v>
+        <v>3384890</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9245260470140323</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9162742651209449</v>
+        <v>0.9167674213085951</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9315563619955406</v>
+        <v>0.9320425583929832</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>7906</v>
@@ -7442,19 +7442,19 @@
         <v>6557526</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6512462</v>
+        <v>6511298</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6601194</v>
+        <v>6600473</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9270975280307175</v>
+        <v>0.9270975280307174</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9207264583091123</v>
+        <v>0.920561910983943</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9332712544782913</v>
+        <v>0.9331692954657015</v>
       </c>
     </row>
     <row r="24">
